--- a/src/main/resources/static/template.xlsx
+++ b/src/main/resources/static/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Xmin</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>Тенденция (тренд)</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305491968"/>
-        <c:axId val="305493504"/>
+        <c:axId val="173740416"/>
+        <c:axId val="173741952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305491968"/>
+        <c:axId val="173740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305493504"/>
+        <c:crossAx val="173741952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305493504"/>
+        <c:axId val="173741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305491968"/>
+        <c:crossAx val="173740416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2837,11 +2840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305601152"/>
-        <c:axId val="305602944"/>
+        <c:axId val="173771776"/>
+        <c:axId val="173777664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305601152"/>
+        <c:axId val="173771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,12 +2901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305602944"/>
+        <c:crossAx val="173777664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305602944"/>
+        <c:axId val="173777664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +2963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305601152"/>
+        <c:crossAx val="173771776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4148,7 +4151,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64A7826-2C25-4D7F-8CE8-F565119DFC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F64A7826-2C25-4D7F-8CE8-F565119DFC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D02CDCD-4D41-4E7D-B0B3-E862E8630DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D02CDCD-4D41-4E7D-B0B3-E862E8630DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4505,7 +4508,7 @@
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4646,10 +4649,15 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9">
